--- a/people.xlsx
+++ b/people.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>lmonica1112@gmail.com</t>
+  </si>
+  <si>
+    <t>lumimonika2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1620,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>8</v>

--- a/people.xlsx
+++ b/people.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -49,10 +49,7 @@
     <t>Kann</t>
   </si>
   <si>
-    <t>lmonica1112@gmail.com</t>
-  </si>
-  <si>
-    <t>lumimonika2@gmail.com</t>
+    <t>email adres</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1551,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1620,7 +1617,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>8</v>
@@ -1671,9 +1668,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" display="lmonica1112@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="lmonica1112@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="lumimonika2@gmail.com"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
